--- a/Bimatech/ТО Bimatech инв.№55550174 на 2022 год.xlsx
+++ b/Bimatech/ТО Bimatech инв.№55550174 на 2022 год.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
   <si>
     <t xml:space="preserve">ТО обрабатывающего центра с ЧПУ Bimatech инв.№55550174 для операторов</t>
   </si>
@@ -144,13 +144,7 @@
     <t xml:space="preserve">Средство для чистки от известковых отложений «АНТИ накипокс»</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка уровня антифриза</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антифриз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замена фильтра масла</t>
+    <t xml:space="preserve">Замена масляного фильтра</t>
   </si>
   <si>
     <t xml:space="preserve">1 раз в 4 месяца</t>
@@ -184,16 +178,6 @@
     <t xml:space="preserve">Вода, мыло, сжатый воздух</t>
   </si>
   <si>
-    <t xml:space="preserve">Полная замена жидкости охлаждения электрошпинделя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 раз в год</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антифриз (незамерзающая жидкость должна представлять собой смесь из 90% воды (не 
-дистиллированной) и макс. 10 % гликоля)</t>
-  </si>
-  <si>
     <t xml:space="preserve">v — необходимо провести обслуживание</t>
   </si>
   <si>
@@ -210,12 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Смена №3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чистка резервуара для вакуумного насоса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замена фильтра удаления масла</t>
   </si>
   <si>
     <t xml:space="preserve">Чистка или замена воздушного фильтра системы наддува электрошпинделя</t>
@@ -232,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,14 +260,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,10 +382,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,10 +408,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -519,7 +481,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -539,9 +501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2331720</xdr:colOff>
+      <xdr:colOff>2330640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5074920</xdr:rowOff>
+      <xdr:rowOff>5073840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,7 +517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="2124000"/>
-          <a:ext cx="2331720" cy="5074920"/>
+          <a:ext cx="2330640" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,13 +534,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2570040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1365840</xdr:rowOff>
+      <xdr:rowOff>1367280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4914360</xdr:colOff>
+      <xdr:colOff>4913280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5057280</xdr:rowOff>
+      <xdr:rowOff>5057640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -591,8 +553,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16207800">
-          <a:off x="10046880" y="3471120"/>
-          <a:ext cx="5074920" cy="2344320"/>
+          <a:off x="10046880" y="3472920"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,9 +575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5078520</xdr:colOff>
+      <xdr:colOff>5077440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2347920</xdr:rowOff>
+      <xdr:rowOff>2346840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,7 +591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="7203600"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,9 +612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5078520</xdr:colOff>
+      <xdr:colOff>5077440</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2347920</xdr:rowOff>
+      <xdr:rowOff>2346840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,7 +628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="9635400"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,9 +649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5078520</xdr:colOff>
+      <xdr:colOff>5077440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2347920</xdr:rowOff>
+      <xdr:rowOff>2346840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -703,7 +665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="12057480"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,9 +686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5078520</xdr:colOff>
+      <xdr:colOff>5077440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2347920</xdr:rowOff>
+      <xdr:rowOff>2346840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,7 +702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="16985520"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,9 +723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2345760</xdr:colOff>
+      <xdr:colOff>2344680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5077800</xdr:rowOff>
+      <xdr:rowOff>5076720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,7 +739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8841240" y="19375920"/>
-          <a:ext cx="2346840" cy="5077800"/>
+          <a:ext cx="2345760" cy="5076720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,9 +760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4928400</xdr:colOff>
+      <xdr:colOff>4927320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5103000</xdr:rowOff>
+      <xdr:rowOff>5101920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,7 +776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11423880" y="19401120"/>
-          <a:ext cx="2346840" cy="5077800"/>
+          <a:ext cx="2345760" cy="5076720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,9 +797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5097600</xdr:colOff>
+      <xdr:colOff>5096520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4810320</xdr:rowOff>
+      <xdr:rowOff>4809240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -851,7 +813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8860320" y="14518800"/>
-          <a:ext cx="5079600" cy="2349000"/>
+          <a:ext cx="5078520" cy="2347920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -877,9 +839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3697560</xdr:colOff>
+      <xdr:colOff>3696480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5113080</xdr:rowOff>
+      <xdr:rowOff>5112000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -893,7 +855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9234720" y="9189720"/>
-          <a:ext cx="2344320" cy="5074920"/>
+          <a:ext cx="2343240" cy="5073840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,9 +876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2503800</xdr:rowOff>
+      <xdr:rowOff>2502720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,7 +892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7917480" y="1601640"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,19 +907,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5077440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2497680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Изображение 9" descr=""/>
+        <xdr:cNvPr id="11" name="Изображение 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -966,8 +928,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7917480" y="14350680"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:off x="7881480" y="6717960"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,19 +944,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5078520</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2498760</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2428560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Изображение 6" descr=""/>
+        <xdr:cNvPr id="12" name="Изображение 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1003,8 +965,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="6717960"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:off x="7917480" y="19416960"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,19 +981,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5353920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2429640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5077440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2342160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Изображение 11" descr=""/>
+        <xdr:cNvPr id="13" name="Изображение 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1040,8 +1002,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7917480" y="16730280"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:off x="7881480" y="32180760"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,19 +1018,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>5353920</xdr:rowOff>
+      <xdr:colOff>18360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5078520</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2342880</xdr:rowOff>
+      <xdr:colOff>5095800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Изображение 13" descr=""/>
+        <xdr:cNvPr id="14" name="Изображение 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1077,8 +1039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="33215760"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:off x="7899840" y="24532200"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,19 +1055,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:colOff>18000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5096880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:colOff>5095440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Изображение 12" descr=""/>
+        <xdr:cNvPr id="15" name="Изображение 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1114,8 +1076,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899840" y="25567200"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:off x="7899480" y="22037040"/>
+          <a:ext cx="5077440" cy="2346840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,19 +1092,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:colOff>12600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5096520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:colOff>5087520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2457000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Изображение 14" descr=""/>
+        <xdr:cNvPr id="16" name="Изображение 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1151,8 +1113,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899480" y="23072040"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:off x="7894080" y="4140000"/>
+          <a:ext cx="5074920" cy="2347200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,19 +1129,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:colOff>197280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2478960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5088600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2458080</xdr:rowOff>
+      <xdr:colOff>2531880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5207400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Изображение 23" descr=""/>
+        <xdr:cNvPr id="17" name="Изображение 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1188,8 +1150,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7894080" y="4140000"/>
-          <a:ext cx="5076000" cy="2348280"/>
+          <a:off x="8078760" y="29305800"/>
+          <a:ext cx="2334600" cy="2728440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,19 +1166,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2478960</xdr:rowOff>
+      <xdr:colOff>2658960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2532960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>5208480</xdr:rowOff>
+      <xdr:colOff>4993560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2017080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 15" descr=""/>
+        <xdr:cNvPr id="18" name="Изображение 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1225,8 +1187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8078760" y="30340800"/>
-          <a:ext cx="2335680" cy="2729520"/>
+          <a:off x="10540440" y="27017280"/>
+          <a:ext cx="2334600" cy="1826640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,19 +1203,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2658960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>2694960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2028600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4994640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2018160</xdr:rowOff>
+      <xdr:colOff>5029560</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5328360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 16" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1262,8 +1224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10540440" y="28052280"/>
-          <a:ext cx="2335680" cy="1827720"/>
+          <a:off x="10576440" y="28855440"/>
+          <a:ext cx="2334600" cy="3299760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,19 +1240,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2694960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2028600</xdr:rowOff>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5030640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>5329440</xdr:rowOff>
+      <xdr:colOff>2496600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2246040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 17" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1299,8 +1261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10576440" y="29890440"/>
-          <a:ext cx="2335680" cy="3300840"/>
+          <a:off x="8043480" y="27017640"/>
+          <a:ext cx="2334600" cy="2055240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,19 +1277,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2497680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2247120</xdr:rowOff>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 18" descr=""/>
+        <xdr:cNvPr id="21" name="Изображение 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1336,8 +1298,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8043480" y="28052640"/>
-          <a:ext cx="2335680" cy="2056320"/>
+          <a:off x="7881480" y="14268960"/>
+          <a:ext cx="5079600" cy="2349000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2549160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4898160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Изображение 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7881480" y="16818120"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,7 +1358,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1529,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1632,7 +1631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="187.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="398.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
@@ -1664,7 +1663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="293.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="192.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
@@ -1673,97 +1672,67 @@
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="192.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="199.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="199.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="421.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="true" ht="421.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="186.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="186.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <f aca="false">A13+1</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="291.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <f aca="false">A14+1</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17"/>
-      <c r="C39" s="13"/>
-    </row>
+    </row>
+    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="16"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1790,7 +1759,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1803,45 +1772,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1851,39 +1820,39 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -1891,79 +1860,79 @@
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="20" t="n">
+      <c r="J4" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="20" t="n">
+      <c r="K4" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O4" s="20" t="n">
+      <c r="O4" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="n">
+      <c r="P4" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="Q4" s="20" t="n">
+      <c r="Q4" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="R4" s="20" t="n">
+      <c r="R4" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="21" t="n">
+      <c r="S4" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="U4" s="20" t="n">
+      <c r="U4" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="V4" s="20" t="n">
+      <c r="V4" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="W4" s="20" t="n">
+      <c r="W4" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="X4" s="20" t="n">
+      <c r="X4" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="Y4" s="20" t="n">
+      <c r="Y4" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="21" t="n">
+      <c r="Z4" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="21" t="n">
+      <c r="AA4" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="AB4" s="20" t="n">
+      <c r="AB4" s="19" t="n">
         <v>26</v>
       </c>
       <c r="AC4" s="5" t="n">
@@ -1978,7 +1947,7 @@
       <c r="AF4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="22" t="n">
+      <c r="AG4" s="21" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1990,80 +1959,80 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG5" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="80.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2074,80 +2043,80 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG6" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="AG6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -2158,82 +2127,82 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG7" s="23"/>
-    </row>
-    <row r="8" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="22"/>
+    </row>
+    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <f aca="false">A7+1</f>
         <v>4</v>
@@ -2243,45 +2212,45 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="K8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="R8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="Y8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG8" s="22"/>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
         <v>5</v>
@@ -2291,43 +2260,43 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="K9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="R9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+      <c r="Y9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="23"/>
+      <c r="AF9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -2339,154 +2308,154 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG10" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="AG10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="23"/>
+      <c r="AG11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="23"/>
+      <c r="AG12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="23"/>
+      <c r="AG13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2516,7 +2485,7 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2529,45 +2498,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="54.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2577,39 +2546,39 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -2617,79 +2586,79 @@
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="20" t="n">
+      <c r="J4" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="K4" s="20" t="n">
+      <c r="K4" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="n">
+      <c r="L4" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="O4" s="20" t="n">
+      <c r="O4" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="P4" s="20" t="n">
+      <c r="P4" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="Q4" s="20" t="n">
+      <c r="Q4" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="R4" s="20" t="n">
+      <c r="R4" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="21" t="n">
+      <c r="S4" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="U4" s="20" t="n">
+      <c r="U4" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="V4" s="20" t="n">
+      <c r="V4" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="W4" s="20" t="n">
+      <c r="W4" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="X4" s="20" t="n">
+      <c r="X4" s="19" t="n">
         <v>22</v>
       </c>
-      <c r="Y4" s="20" t="n">
+      <c r="Y4" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="21" t="n">
+      <c r="Z4" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="21" t="n">
+      <c r="AA4" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="AB4" s="20" t="n">
+      <c r="AB4" s="19" t="n">
         <v>26</v>
       </c>
       <c r="AC4" s="5" t="n">
@@ -2704,7 +2673,7 @@
       <c r="AF4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="22" t="n">
+      <c r="AG4" s="21" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2717,43 +2686,43 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="23"/>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="81.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2765,43 +2734,43 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="R6" s="5"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="23"/>
+      <c r="AG6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -2813,37 +2782,37 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="22"/>
+      <c r="AG7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -2855,37 +2824,37 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="22"/>
+      <c r="AG8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -2897,37 +2866,37 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="22"/>
+      <c r="AG9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -2939,379 +2908,256 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="22"/>
+      <c r="AG10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="e">
-        <f aca="false">#REF!+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5" t="n">
+        <f aca="false">A10+1</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="22"/>
+      <c r="AG11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="e">
+      <c r="A12" s="5" t="n">
         <f aca="false">A11+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="22"/>
-    </row>
-    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="e">
+      <c r="AG12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <f aca="false">A12+1</f>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF13" s="5"/>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="e">
+    <row r="14" customFormat="false" ht="81.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <f aca="false">A13+1</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="22"/>
-    </row>
-    <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="e">
-        <f aca="false">A14+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="81.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="e">
-        <f aca="false">A15+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="22"/>
-    </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="e">
-        <f aca="false">A16+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="22"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="26"/>
-    </row>
-    <row r="47" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11"/>
-      <c r="C47" s="2"/>
-    </row>
+      <c r="AG15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="24"/>
+    </row>
+    <row r="44" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="11"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3320,7 +3166,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:AG3"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.461805555555556" bottom="0.461805555555556" header="0.196527777777778" footer="0.196527777777778"/>
